--- a/docs/mcode/oncocore-GenomicsReport.xlsx
+++ b/docs/mcode/oncocore-GenomicsReport.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$56</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="331">
   <si>
     <t>Path</t>
   </si>
@@ -200,19 +200,98 @@
     <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
-    <t>DiagnosticReport.meta.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references).</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.extension</t>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://tools.ietf.org/html/bcp47</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension</t>
   </si>
   <si>
     <t>extensions
@@ -226,580 +305,468 @@
     <t>Additional Content defined by implementations</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReportID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Id for external references to this report</t>
+  </si>
+  <si>
+    <t>The local ID assigned to the report by the order filler, usually by the Information System of the diagnostic service provider.</t>
+  </si>
+  <si>
+    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
+  </si>
+  <si>
+    <t>OBR-51</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>registered | partial | final | corrected | appended | cancelled | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report as a whole.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
+  </si>
+  <si>
+    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentservicediscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Service category</t>
+  </si>
+  <si>
+    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
+  </si>
+  <si>
+    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references).</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.extension</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.lastUpdated</t>
+    <t>DiagnosticReport.category.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Fixed_GE</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/observation-category"/&gt;</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="GE"/&gt;</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t>Name/Code for this diagnostic report</t>
+  </si>
+  <si>
+    <t>A code or name that describes this diagnostic report.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t>Fixed_81247-9</t>
+  </si>
+  <si>
+    <t>Master HL7 genetic variant reporting panel</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.system</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://loinc.org"/&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.version</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="81247-9"/&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.display</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
+</t>
+  </si>
+  <si>
+    <t>The subject of the report, usually, but not always, the patient</t>
+  </si>
+  <si>
+    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
+  </si>
+  <si>
+    <t>SHALL know the subject context.</t>
+  </si>
+  <si>
+    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
+  </si>
+  <si>
+    <t>participation[typeCode=SBJ]</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
+</t>
+  </si>
+  <si>
+    <t>Health care event when test ordered</t>
+  </si>
+  <si>
+    <t>The link to the health care event (encounter) when the order was made.</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.effective[x]</t>
+  </si>
+  <si>
+    <t>Observation time
+Effective Time</t>
+  </si>
+  <si>
+    <t>dateTime {[]} {[]}
+Period {[]} {[]}</t>
+  </si>
+  <si>
+    <t>Clinically Relevant time/time-period for report</t>
+  </si>
+  <si>
+    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
+  </si>
+  <si>
+    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
+  </si>
+  <si>
+    <t>Need to know where in the patient history to file/present this report.</t>
+  </si>
+  <si>
+    <t>OBR-7</t>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+  </si>
+  <si>
+    <t>when.done</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.issued</t>
+  </si>
+  <si>
+    <t>Date Created
+Date publishedDate Issued</t>
   </si>
   <si>
     <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles [[[StructureDefinition]]]s that this resource claims to conform to. The URL is a reference to [[[StructureDefinition.url]]].</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource  The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource.  The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones"</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element as much as possible.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://tools.ietf.org/html/bcp47</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ReportID
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Id for external references to this report</t>
-  </si>
-  <si>
-    <t>The local ID assigned to the report by the order filler, usually by the Information System of the diagnostic service provider.</t>
-  </si>
-  <si>
-    <t>Need to know what identifier to use when making queries about this report from the source laboratory, and for linking to the report outside FHIR context.</t>
-  </si>
-  <si>
-    <t>OBR-51</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | final | corrected | appended | cancelled | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report as a whole.</t>
-  </si>
-  <si>
-    <t>This is labeled as "Is Modifier" because applications need to take appropriate action if a report is withdrawn.</t>
-  </si>
-  <si>
-    <t>Diagnostic services routinely issue provisional/incomplete reports, and sometimes withdraw previously released reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentservicediscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Service category</t>
-  </si>
-  <si>
-    <t>A code that classifies the clinical discipline, department or diagnostic service that created the report (e.g. cardiology, biochemistry, hematology, MRI). This is used for searching, sorting and display purposes.</t>
-  </si>
-  <si>
-    <t>The level of granularity is defined by the category concepts in the value set. More fine-grained filtering can be performed using the metadata and/or terminology hierarchy in DiagnosticReport.code.</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labelled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:code}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Fixed_GE</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/observation-category"/&gt;</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="GE"/&gt;</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report</t>
-  </si>
-  <si>
-    <t>A code or name that describes this diagnostic report.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient]]}
-</t>
-  </si>
-  <si>
-    <t>The subject of the report, usually, but not always, the patient</t>
-  </si>
-  <si>
-    <t>The subject of the report. Usually, but not always, this is a patient. However diagnostic services also perform analyses on specimens collected from a variety of other sources.</t>
-  </si>
-  <si>
-    <t>SHALL know the subject context.</t>
-  </si>
-  <si>
-    <t>PID-3 (no HL7 v2 mapping for Group or Device)</t>
-  </si>
-  <si>
-    <t>participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter]]}
-</t>
-  </si>
-  <si>
-    <t>Health care event when test ordered</t>
-  </si>
-  <si>
-    <t>The link to the health care event (encounter) when the order was made.</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.effective[x]</t>
-  </si>
-  <si>
-    <t>Observation time
-Effective Time</t>
-  </si>
-  <si>
-    <t>dateTime {[]} {[]}
-Period {[]} {[]}</t>
-  </si>
-  <si>
-    <t>Clinically Relevant time/time-period for report</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed values are related to. When the subject of the report is a patient, this is usually either the time of the procedure or of specimen collection(s), but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>If the diagnostic procedure was performed on the patient, this is the time it was performed. If there are specimens, the diagnostically relevant time can be derived from the specimen collection times, but the specimen information is not always available, and the exact relationship between the specimens and the diagnostically relevant time is not always automatic.</t>
-  </si>
-  <si>
-    <t>Need to know where in the patient history to file/present this report.</t>
-  </si>
-  <si>
-    <t>OBR-7</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>when.done</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.issued</t>
-  </si>
-  <si>
-    <t>Date Created
-Date publishedDate Issued</t>
-  </si>
-  <si>
     <t>DateTime this version was released</t>
   </si>
   <si>
@@ -907,7 +874,7 @@
 Atomic ValueResultAtomic resultDataTestAnalyteBatteryOrganizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-GeneticRegionAnalysis]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/oncocore-GeneticRegionAnalyzed]]}
 </t>
   </si>
   <si>
@@ -1229,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM51"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1239,7 +1206,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.32421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1261,7 +1228,7 @@
     <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.21875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="47.3984375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.9453125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -1723,21 +1690,23 @@
         <v>42</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>42</v>
@@ -1800,7 +1769,7 @@
         <v>42</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>42</v>
@@ -1808,18 +1777,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>42</v>
@@ -1866,13 +1835,13 @@
         <v>42</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>42</v>
@@ -1904,7 +1873,7 @@
         <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>42</v>
@@ -1912,11 +1881,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -1932,19 +1901,19 @@
         <v>42</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1999,7 +1968,7 @@
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>42</v>
@@ -2008,7 +1977,7 @@
         <v>42</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>42</v>
@@ -2016,18 +1985,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>42</v>
@@ -2036,19 +2005,19 @@
         <v>42</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2112,7 +2081,7 @@
         <v>42</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>42</v>
@@ -2120,11 +2089,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2140,19 +2109,19 @@
         <v>42</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2216,7 +2185,7 @@
         <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>42</v>
@@ -2224,11 +2193,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2241,22 +2210,22 @@
         <v>42</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2282,13 +2251,13 @@
         <v>42</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="Z10" t="s" s="2">
         <v>42</v>
@@ -2320,7 +2289,7 @@
         <v>42</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>42</v>
@@ -2328,11 +2297,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2351,18 +2320,18 @@
         <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>42</v>
       </c>
@@ -2386,10 +2355,10 @@
         <v>42</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="Y11" t="s" s="2">
         <v>42</v>
@@ -2421,18 +2390,18 @@
         <v>42</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2440,7 +2409,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>50</v>
@@ -2455,18 +2424,20 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>42</v>
       </c>
@@ -2490,13 +2461,13 @@
         <v>42</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>42</v>
@@ -2525,26 +2496,26 @@
         <v>42</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>42</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2556,19 +2527,19 @@
         <v>42</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2594,13 +2565,13 @@
         <v>42</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>42</v>
@@ -2617,11 +2588,15 @@
       <c r="AD13" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE13" s="2"/>
+      <c r="AE13" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG13" s="2"/>
+      <c r="AG13" t="s" s="2">
+        <v>50</v>
+      </c>
       <c r="AH13" t="s" s="2">
         <v>42</v>
       </c>
@@ -2629,22 +2604,22 @@
         <v>42</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>42</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2663,17 +2638,15 @@
         <v>42</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>42</v>
@@ -2727,7 +2700,7 @@
       </c>
       <c r="AG14" s="2"/>
       <c r="AH14" t="s" s="2">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>42</v>
@@ -2736,7 +2709,7 @@
         <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>42</v>
@@ -2744,11 +2717,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -2767,16 +2740,16 @@
         <v>42</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2840,7 +2813,7 @@
         <v>42</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>42</v>
@@ -2848,15 +2821,15 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>41</v>
@@ -2868,21 +2841,23 @@
         <v>42</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>42</v>
       </c>
@@ -2918,16 +2893,14 @@
         <v>42</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="AE16" s="2"/>
       <c r="AF16" t="s" s="2">
@@ -2941,10 +2914,10 @@
         <v>42</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>42</v>
@@ -2952,40 +2925,38 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>142</v>
+      </c>
       <c r="C17" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K17" s="2"/>
       <c r="L17" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>42</v>
@@ -3048,7 +3019,7 @@
         <v>42</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>42</v>
@@ -3056,18 +3027,18 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>42</v>
@@ -3076,21 +3047,19 @@
         <v>42</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>42</v>
       </c>
@@ -3149,54 +3118,52 @@
         <v>42</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>42</v>
       </c>
@@ -3220,13 +3187,13 @@
         <v>42</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>42</v>
@@ -3255,26 +3222,26 @@
         <v>42</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>148</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3289,24 +3256,26 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>42</v>
@@ -3324,13 +3293,13 @@
         <v>42</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>42</v>
@@ -3347,15 +3316,11 @@
       <c r="AD20" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AE20" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="AE20" s="2"/>
       <c r="AF20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AG20" t="s" s="2">
-        <v>50</v>
-      </c>
+      <c r="AG20" s="2"/>
       <c r="AH20" t="s" s="2">
         <v>42</v>
       </c>
@@ -3363,18 +3328,18 @@
         <v>42</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>157</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3394,18 +3359,20 @@
         <v>42</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>61</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>42</v>
@@ -3465,10 +3432,10 @@
         <v>42</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>42</v>
@@ -3476,18 +3443,18 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>42</v>
@@ -3496,27 +3463,27 @@
         <v>42</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>42</v>
@@ -3569,10 +3536,10 @@
         <v>42</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>42</v>
@@ -3580,7 +3547,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3588,10 +3555,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F23" t="s" s="2">
         <v>50</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>42</v>
@@ -3603,19 +3570,17 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>42</v>
@@ -3652,14 +3617,16 @@
         <v>42</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>42</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>166</v>
+        <v>42</v>
       </c>
       <c r="AE23" s="2"/>
       <c r="AF23" t="s" s="2">
@@ -3673,10 +3640,10 @@
         <v>42</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>42</v>
@@ -3684,17 +3651,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>50</v>
@@ -3709,14 +3674,20 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K24" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>42</v>
       </c>
@@ -3775,10 +3746,10 @@
         <v>42</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>42</v>
+        <v>179</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>42</v>
@@ -3786,7 +3757,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3806,19 +3777,23 @@
         <v>42</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>42</v>
       </c>
@@ -3877,10 +3852,10 @@
         <v>42</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>63</v>
+        <v>187</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>42</v>
@@ -3888,18 +3863,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>42</v>
@@ -3908,20 +3883,18 @@
         <v>42</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>42</v>
@@ -3946,13 +3919,13 @@
         <v>42</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>42</v>
+        <v>193</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>42</v>
@@ -3981,18 +3954,18 @@
         <v>42</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>42</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4012,29 +3985,25 @@
         <v>42</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="R27" t="s" s="2">
         <v>42</v>
@@ -4087,10 +4056,10 @@
         <v>42</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>42</v>
@@ -4098,18 +4067,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
@@ -4118,19 +4087,19 @@
         <v>42</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4191,10 +4160,10 @@
         <v>42</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>186</v>
+        <v>129</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>42</v>
@@ -4202,7 +4171,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4210,10 +4179,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>42</v>
@@ -4225,24 +4194,26 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>136</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>42</v>
@@ -4272,16 +4243,14 @@
         <v>42</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>42</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="AE29" s="2"/>
       <c r="AF29" t="s" s="2">
@@ -4295,10 +4264,10 @@
         <v>42</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>42</v>
@@ -4306,15 +4275,17 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>50</v>
@@ -4329,18 +4300,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>197</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>42</v>
       </c>
@@ -4399,10 +4368,10 @@
         <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>198</v>
+        <v>42</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>199</v>
+        <v>42</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>42</v>
@@ -4410,7 +4379,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4430,23 +4399,19 @@
         <v>42</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>42</v>
       </c>
@@ -4505,10 +4470,10 @@
         <v>42</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>206</v>
+        <v>42</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>42</v>
@@ -4516,18 +4481,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>42</v>
@@ -4536,23 +4501,21 @@
         <v>42</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>210</v>
+        <v>131</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>42</v>
       </c>
@@ -4611,10 +4574,10 @@
         <v>42</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>42</v>
@@ -4622,7 +4585,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4630,7 +4593,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>50</v>
@@ -4645,22 +4608,26 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="N33" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>42</v>
+        <v>205</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>42</v>
@@ -4678,13 +4645,13 @@
         <v>42</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>218</v>
+        <v>42</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>42</v>
@@ -4713,26 +4680,26 @@
         <v>42</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>222</v>
+        <v>152</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>223</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4747,18 +4714,18 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>42</v>
       </c>
@@ -4817,18 +4784,18 @@
         <v>42</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>232</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4851,22 +4818,24 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
+        <v>162</v>
       </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="N35" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>42</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>42</v>
@@ -4919,26 +4888,26 @@
         <v>42</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>241</v>
+        <v>42</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>50</v>
@@ -4953,19 +4922,17 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>246</v>
+        <v>170</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>42</v>
@@ -5025,26 +4992,26 @@
         <v>42</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -5059,19 +5026,19 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>252</v>
+        <v>175</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>42</v>
@@ -5131,26 +5098,26 @@
         <v>42</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>258</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>260</v>
+        <v>42</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>50</v>
@@ -5165,19 +5132,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>42</v>
@@ -5237,53 +5204,51 @@
         <v>42</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>268</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>270</v>
+        <v>214</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>42</v>
@@ -5343,18 +5308,18 @@
         <v>42</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>276</v>
+        <v>219</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>42</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5365,7 +5330,7 @@
         <v>40</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>42</v>
@@ -5374,23 +5339,19 @@
         <v>42</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>42</v>
       </c>
@@ -5449,29 +5410,29 @@
         <v>42</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>42</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>284</v>
+        <v>228</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>285</v>
+        <v>229</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>42</v>
@@ -5480,20 +5441,22 @@
         <v>42</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>42</v>
@@ -5553,29 +5516,29 @@
         <v>42</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>42</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>42</v>
@@ -5584,21 +5547,23 @@
         <v>42</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>293</v>
+        <v>240</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>42</v>
       </c>
@@ -5657,32 +5622,32 @@
         <v>42</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>42</v>
+        <v>247</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>42</v>
@@ -5691,17 +5656,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>42</v>
@@ -5761,18 +5728,18 @@
         <v>42</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>304</v>
+        <v>255</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5783,7 +5750,7 @@
         <v>40</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>42</v>
@@ -5795,16 +5762,20 @@
         <v>42</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>52</v>
+        <v>259</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>61</v>
+        <v>260</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>42</v>
       </c>
@@ -5863,10 +5834,10 @@
         <v>42</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>42</v>
+        <v>264</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>63</v>
+        <v>265</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>42</v>
@@ -5874,11 +5845,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -5897,18 +5868,20 @@
         <v>42</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>42</v>
       </c>
@@ -5967,22 +5940,22 @@
         <v>42</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>42</v>
+        <v>272</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>42</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -5992,27 +5965,27 @@
         <v>41</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>66</v>
+        <v>275</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>276</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>42</v>
       </c>
@@ -6071,10 +6044,10 @@
         <v>42</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>42</v>
@@ -6082,7 +6055,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6093,7 +6066,7 @@
         <v>40</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>42</v>
@@ -6105,20 +6078,18 @@
         <v>42</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>42</v>
       </c>
@@ -6180,7 +6151,7 @@
         <v>42</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>42</v>
@@ -6188,18 +6159,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>42</v>
+        <v>288</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>42</v>
@@ -6211,16 +6182,18 @@
         <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>317</v>
+        <v>289</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>42</v>
       </c>
@@ -6279,10 +6252,10 @@
         <v>42</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>42</v>
+        <v>293</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>42</v>
@@ -6290,11 +6263,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6313,20 +6286,16 @@
         <v>42</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>323</v>
+        <v>127</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>42</v>
       </c>
@@ -6385,10 +6354,10 @@
         <v>42</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>42</v>
@@ -6396,11 +6365,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6419,15 +6388,17 @@
         <v>42</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>91</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>42</v>
@@ -6452,13 +6423,13 @@
         <v>42</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>332</v>
+        <v>42</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>333</v>
+        <v>42</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>42</v>
@@ -6487,10 +6458,10 @@
         <v>42</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>327</v>
+        <v>42</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>42</v>
@@ -6498,11 +6469,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>42</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6515,26 +6486,24 @@
         <v>42</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>336</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>337</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>42</v>
       </c>
@@ -6593,17 +6562,539 @@
         <v>42</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE52" s="2"/>
+      <c r="AF52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG52" s="2"/>
+      <c r="AH52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE53" s="2"/>
+      <c r="AF53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG53" s="2"/>
+      <c r="AH53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE54" s="2"/>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" s="2"/>
+      <c r="AH54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE55" s="2"/>
+      <c r="AF55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG55" s="2"/>
+      <c r="AH55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="M56" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AE56" s="2"/>
+      <c r="AF56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG56" s="2"/>
+      <c r="AH56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL51">
+  <autoFilter ref="A1:AL56">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6613,7 +7104,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI50">
+  <conditionalFormatting sqref="A2:AI55">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
